--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Mif-Cxcr2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Mif-Cxcr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,60 +534,60 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.94661295747962</v>
+        <v>8.837028333333333</v>
       </c>
       <c r="H2">
-        <v>6.94661295747962</v>
+        <v>26.511085</v>
       </c>
       <c r="I2">
-        <v>0.02731928737087198</v>
+        <v>0.03372386849660382</v>
       </c>
       <c r="J2">
-        <v>0.02731928737087198</v>
+        <v>0.03372386849660382</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>312.161971943165</v>
+        <v>0.040154</v>
       </c>
       <c r="N2">
-        <v>312.161971943165</v>
+        <v>0.120462</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.000117739357997762</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.000117739357997762</v>
       </c>
       <c r="Q2">
-        <v>2168.468399132779</v>
+        <v>0.3548420356966666</v>
       </c>
       <c r="R2">
-        <v>2168.468399132779</v>
+        <v>3.19357832127</v>
       </c>
       <c r="S2">
-        <v>0.02731928737087198</v>
+        <v>3.970626625991084E-06</v>
       </c>
       <c r="T2">
-        <v>0.02731928737087198</v>
+        <v>3.970626625991084E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>122.556546732602</v>
+        <v>8.837028333333333</v>
       </c>
       <c r="H3">
-        <v>122.556546732602</v>
+        <v>26.511085</v>
       </c>
       <c r="I3">
-        <v>0.481984175577912</v>
+        <v>0.03372386849660382</v>
       </c>
       <c r="J3">
-        <v>0.481984175577912</v>
+        <v>0.03372386849660382</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>312.161971943165</v>
+        <v>2.854025333333333</v>
       </c>
       <c r="N3">
-        <v>312.161971943165</v>
+        <v>8.562075999999999</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.008368558809981951</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.008368558809981953</v>
       </c>
       <c r="Q3">
-        <v>38257.49330259369</v>
+        <v>25.22110273471777</v>
       </c>
       <c r="R3">
-        <v>38257.49330259369</v>
+        <v>226.98992461246</v>
       </c>
       <c r="S3">
-        <v>0.481984175577912</v>
+        <v>0.0002822201768139266</v>
       </c>
       <c r="T3">
-        <v>0.481984175577912</v>
+        <v>0.0002822201768139267</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.9659827730663</v>
+        <v>8.837028333333333</v>
       </c>
       <c r="H4">
-        <v>27.9659827730663</v>
+        <v>26.511085</v>
       </c>
       <c r="I4">
-        <v>0.1099831996777107</v>
+        <v>0.03372386849660382</v>
       </c>
       <c r="J4">
-        <v>0.1099831996777107</v>
+        <v>0.03372386849660382</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>312.161971943165</v>
+        <v>0.1353773333333333</v>
       </c>
       <c r="N4">
-        <v>312.161971943165</v>
+        <v>0.406132</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.0003969527398046444</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.0003969527398046444</v>
       </c>
       <c r="Q4">
-        <v>8729.916329768957</v>
+        <v>1.196333330357778</v>
       </c>
       <c r="R4">
-        <v>8729.916329768957</v>
+        <v>10.76699997322</v>
       </c>
       <c r="S4">
-        <v>0.1099831996777107</v>
+        <v>1.338678199653842E-05</v>
       </c>
       <c r="T4">
-        <v>0.1099831996777107</v>
+        <v>1.338678199653842E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -723,57 +723,57 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>25.4037659177435</v>
+        <v>8.837028333333333</v>
       </c>
       <c r="H5">
-        <v>25.4037659177435</v>
+        <v>26.511085</v>
       </c>
       <c r="I5">
-        <v>0.09990664308739619</v>
+        <v>0.03372386849660382</v>
       </c>
       <c r="J5">
-        <v>0.09990664308739619</v>
+        <v>0.03372386849660382</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>312.161971943165</v>
+        <v>338.0118816666666</v>
       </c>
       <c r="N5">
-        <v>312.161971943165</v>
+        <v>1014.035645</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.9911167490922156</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.9911167490922157</v>
       </c>
       <c r="Q5">
-        <v>7930.089663665377</v>
+        <v>2987.020575291647</v>
       </c>
       <c r="R5">
-        <v>7930.089663665377</v>
+        <v>26883.18517762482</v>
       </c>
       <c r="S5">
-        <v>0.09990664308739619</v>
+        <v>0.03342429091116736</v>
       </c>
       <c r="T5">
-        <v>0.09990664308739619</v>
+        <v>0.03342429091116737</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,117 +782,1233 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>34.8709812173715</v>
+        <v>123.4280906666667</v>
       </c>
       <c r="H6">
-        <v>34.8709812173715</v>
+        <v>370.284272</v>
       </c>
       <c r="I6">
-        <v>0.1371388276002775</v>
+        <v>0.4710262931633571</v>
       </c>
       <c r="J6">
-        <v>0.1371388276002775</v>
+        <v>0.4710262931633571</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>312.161971943165</v>
+        <v>0.040154</v>
       </c>
       <c r="N6">
-        <v>312.161971943165</v>
+        <v>0.120462</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.000117739357997762</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.000117739357997762</v>
       </c>
       <c r="Q6">
-        <v>10885.39426040776</v>
+        <v>4.956131552629333</v>
       </c>
       <c r="R6">
-        <v>10885.39426040776</v>
+        <v>44.60518397366399</v>
       </c>
       <c r="S6">
-        <v>0.1371388276002775</v>
+        <v>5.545833335711928E-05</v>
       </c>
       <c r="T6">
-        <v>0.1371388276002775</v>
+        <v>5.545833335711928E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>123.4280906666667</v>
+      </c>
+      <c r="H7">
+        <v>370.284272</v>
+      </c>
+      <c r="I7">
+        <v>0.4710262931633571</v>
+      </c>
+      <c r="J7">
+        <v>0.4710262931633571</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>2.854025333333333</v>
+      </c>
+      <c r="N7">
+        <v>8.562075999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.008368558809981951</v>
+      </c>
+      <c r="P7">
+        <v>0.008368558809981953</v>
+      </c>
+      <c r="Q7">
+        <v>352.2668976076301</v>
+      </c>
+      <c r="R7">
+        <v>3170.402078468672</v>
+      </c>
+      <c r="S7">
+        <v>0.003941811235385353</v>
+      </c>
+      <c r="T7">
+        <v>0.003941811235385354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>123.4280906666667</v>
+      </c>
+      <c r="H8">
+        <v>370.284272</v>
+      </c>
+      <c r="I8">
+        <v>0.4710262931633571</v>
+      </c>
+      <c r="J8">
+        <v>0.4710262931633571</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1353773333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.406132</v>
+      </c>
+      <c r="O8">
+        <v>0.0003969527398046444</v>
+      </c>
+      <c r="P8">
+        <v>0.0003969527398046444</v>
+      </c>
+      <c r="Q8">
+        <v>16.70936577287822</v>
+      </c>
+      <c r="R8">
+        <v>150.384291955904</v>
+      </c>
+      <c r="S8">
+        <v>0.0001869751775912202</v>
+      </c>
+      <c r="T8">
+        <v>0.0001869751775912202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>123.4280906666667</v>
+      </c>
+      <c r="H9">
+        <v>370.284272</v>
+      </c>
+      <c r="I9">
+        <v>0.4710262931633571</v>
+      </c>
+      <c r="J9">
+        <v>0.4710262931633571</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>338.0118816666666</v>
+      </c>
+      <c r="N9">
+        <v>1014.035645</v>
+      </c>
+      <c r="O9">
+        <v>0.9911167490922156</v>
+      </c>
+      <c r="P9">
+        <v>0.9911167490922157</v>
+      </c>
+      <c r="Q9">
+        <v>41720.16117676393</v>
+      </c>
+      <c r="R9">
+        <v>375481.4505908754</v>
+      </c>
+      <c r="S9">
+        <v>0.4668420484170234</v>
+      </c>
+      <c r="T9">
+        <v>0.4668420484170234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>30.82597366666667</v>
+      </c>
+      <c r="H10">
+        <v>92.47792099999999</v>
+      </c>
+      <c r="I10">
+        <v>0.1176380840936279</v>
+      </c>
+      <c r="J10">
+        <v>0.1176380840936279</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.040154</v>
+      </c>
+      <c r="N10">
+        <v>0.120462</v>
+      </c>
+      <c r="O10">
+        <v>0.000117739357997762</v>
+      </c>
+      <c r="P10">
+        <v>0.000117739357997762</v>
+      </c>
+      <c r="Q10">
+        <v>1.237786146611333</v>
+      </c>
+      <c r="R10">
+        <v>11.140075319502</v>
+      </c>
+      <c r="S10">
+        <v>1.385063249727048E-05</v>
+      </c>
+      <c r="T10">
+        <v>1.385063249727048E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>30.82597366666667</v>
+      </c>
+      <c r="H11">
+        <v>92.47792099999999</v>
+      </c>
+      <c r="I11">
+        <v>0.1176380840936279</v>
+      </c>
+      <c r="J11">
+        <v>0.1176380840936279</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>2.854025333333333</v>
+      </c>
+      <c r="N11">
+        <v>8.562075999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.008368558809981951</v>
+      </c>
+      <c r="P11">
+        <v>0.008368558809981953</v>
+      </c>
+      <c r="Q11">
+        <v>87.97810976933287</v>
+      </c>
+      <c r="R11">
+        <v>791.8029879239959</v>
+      </c>
+      <c r="S11">
+        <v>0.0009844612250311273</v>
+      </c>
+      <c r="T11">
+        <v>0.0009844612250311275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>30.82597366666667</v>
+      </c>
+      <c r="H12">
+        <v>92.47792099999999</v>
+      </c>
+      <c r="I12">
+        <v>0.1176380840936279</v>
+      </c>
+      <c r="J12">
+        <v>0.1176380840936279</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1353773333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.406132</v>
+      </c>
+      <c r="O12">
+        <v>0.0003969527398046444</v>
+      </c>
+      <c r="P12">
+        <v>0.0003969527398046444</v>
+      </c>
+      <c r="Q12">
+        <v>4.173138112396888</v>
+      </c>
+      <c r="R12">
+        <v>37.558243011572</v>
+      </c>
+      <c r="S12">
+        <v>4.669675978633474E-05</v>
+      </c>
+      <c r="T12">
+        <v>4.669675978633475E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>30.82597366666667</v>
+      </c>
+      <c r="H13">
+        <v>92.47792099999999</v>
+      </c>
+      <c r="I13">
+        <v>0.1176380840936279</v>
+      </c>
+      <c r="J13">
+        <v>0.1176380840936279</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>338.0118816666666</v>
+      </c>
+      <c r="N13">
+        <v>1014.035645</v>
+      </c>
+      <c r="O13">
+        <v>0.9911167490922156</v>
+      </c>
+      <c r="P13">
+        <v>0.9911167490922157</v>
+      </c>
+      <c r="Q13">
+        <v>10419.54536327712</v>
+      </c>
+      <c r="R13">
+        <v>93775.90826949403</v>
+      </c>
+      <c r="S13">
+        <v>0.1165930754763131</v>
+      </c>
+      <c r="T13">
+        <v>0.1165930754763131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>25.73562433333333</v>
+      </c>
+      <c r="H14">
+        <v>77.206873</v>
+      </c>
+      <c r="I14">
+        <v>0.09821229240847713</v>
+      </c>
+      <c r="J14">
+        <v>0.09821229240847713</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.040154</v>
+      </c>
+      <c r="N14">
+        <v>0.120462</v>
+      </c>
+      <c r="O14">
+        <v>0.000117739357997762</v>
+      </c>
+      <c r="P14">
+        <v>0.000117739357997762</v>
+      </c>
+      <c r="Q14">
+        <v>1.033388259480666</v>
+      </c>
+      <c r="R14">
+        <v>9.300494335325999</v>
+      </c>
+      <c r="S14">
+        <v>1.156345225566257E-05</v>
+      </c>
+      <c r="T14">
+        <v>1.156345225566257E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>25.73562433333333</v>
+      </c>
+      <c r="H15">
+        <v>77.206873</v>
+      </c>
+      <c r="I15">
+        <v>0.09821229240847713</v>
+      </c>
+      <c r="J15">
+        <v>0.09821229240847713</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>2.854025333333333</v>
+      </c>
+      <c r="N15">
+        <v>8.562075999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.008368558809981951</v>
+      </c>
+      <c r="P15">
+        <v>0.008368558809981953</v>
+      </c>
+      <c r="Q15">
+        <v>73.4501238164831</v>
+      </c>
+      <c r="R15">
+        <v>661.0511143483479</v>
+      </c>
+      <c r="S15">
+        <v>0.0008218953448834848</v>
+      </c>
+      <c r="T15">
+        <v>0.0008218953448834849</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>25.73562433333333</v>
+      </c>
+      <c r="H16">
+        <v>77.206873</v>
+      </c>
+      <c r="I16">
+        <v>0.09821229240847713</v>
+      </c>
+      <c r="J16">
+        <v>0.09821229240847713</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1353773333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.406132</v>
+      </c>
+      <c r="O16">
+        <v>0.0003969527398046444</v>
+      </c>
+      <c r="P16">
+        <v>0.0003969527398046444</v>
+      </c>
+      <c r="Q16">
+        <v>3.484020193915111</v>
+      </c>
+      <c r="R16">
+        <v>31.356181745236</v>
+      </c>
+      <c r="S16">
+        <v>3.898563855403987E-05</v>
+      </c>
+      <c r="T16">
+        <v>3.898563855403988E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>25.73562433333333</v>
+      </c>
+      <c r="H17">
+        <v>77.206873</v>
+      </c>
+      <c r="I17">
+        <v>0.09821229240847713</v>
+      </c>
+      <c r="J17">
+        <v>0.09821229240847713</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>338.0118816666666</v>
+      </c>
+      <c r="N17">
+        <v>1014.035645</v>
+      </c>
+      <c r="O17">
+        <v>0.9911167490922156</v>
+      </c>
+      <c r="P17">
+        <v>0.9911167490922157</v>
+      </c>
+      <c r="Q17">
+        <v>8698.946806776454</v>
+      </c>
+      <c r="R17">
+        <v>78290.52126098808</v>
+      </c>
+      <c r="S17">
+        <v>0.09733984797278394</v>
+      </c>
+      <c r="T17">
+        <v>0.09733984797278396</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>35.74964633333334</v>
+      </c>
+      <c r="H18">
+        <v>107.248939</v>
+      </c>
+      <c r="I18">
+        <v>0.1364278042651323</v>
+      </c>
+      <c r="J18">
+        <v>0.1364278042651323</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.040154</v>
+      </c>
+      <c r="N18">
+        <v>0.120462</v>
+      </c>
+      <c r="O18">
+        <v>0.000117739357997762</v>
+      </c>
+      <c r="P18">
+        <v>0.000117739357997762</v>
+      </c>
+      <c r="Q18">
+        <v>1.435491298868667</v>
+      </c>
+      <c r="R18">
+        <v>12.919421689818</v>
+      </c>
+      <c r="S18">
+        <v>1.606292208722101E-05</v>
+      </c>
+      <c r="T18">
+        <v>1.606292208722101E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>35.74964633333334</v>
+      </c>
+      <c r="H19">
+        <v>107.248939</v>
+      </c>
+      <c r="I19">
+        <v>0.1364278042651323</v>
+      </c>
+      <c r="J19">
+        <v>0.1364278042651323</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>2.854025333333333</v>
+      </c>
+      <c r="N19">
+        <v>8.562075999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.008368558809981951</v>
+      </c>
+      <c r="P19">
+        <v>0.008368558809981953</v>
+      </c>
+      <c r="Q19">
+        <v>102.0303962930404</v>
+      </c>
+      <c r="R19">
+        <v>918.273566637364</v>
+      </c>
+      <c r="S19">
+        <v>0.001141704103309466</v>
+      </c>
+      <c r="T19">
+        <v>0.001141704103309466</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>35.74964633333334</v>
+      </c>
+      <c r="H20">
+        <v>107.248939</v>
+      </c>
+      <c r="I20">
+        <v>0.1364278042651323</v>
+      </c>
+      <c r="J20">
+        <v>0.1364278042651323</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.1353773333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.406132</v>
+      </c>
+      <c r="O20">
+        <v>0.0003969527398046444</v>
+      </c>
+      <c r="P20">
+        <v>0.0003969527398046444</v>
+      </c>
+      <c r="Q20">
+        <v>4.839691788216444</v>
+      </c>
+      <c r="R20">
+        <v>43.557226093948</v>
+      </c>
+      <c r="S20">
+        <v>5.415539068857601E-05</v>
+      </c>
+      <c r="T20">
+        <v>5.415539068857601E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>35.74964633333334</v>
+      </c>
+      <c r="H21">
+        <v>107.248939</v>
+      </c>
+      <c r="I21">
+        <v>0.1364278042651323</v>
+      </c>
+      <c r="J21">
+        <v>0.1364278042651323</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>338.0118816666666</v>
+      </c>
+      <c r="N21">
+        <v>1014.035645</v>
+      </c>
+      <c r="O21">
+        <v>0.9911167490922156</v>
+      </c>
+      <c r="P21">
+        <v>0.9911167490922157</v>
+      </c>
+      <c r="Q21">
+        <v>12083.80522604785</v>
+      </c>
+      <c r="R21">
+        <v>108754.2470344306</v>
+      </c>
+      <c r="S21">
+        <v>0.135215881849047</v>
+      </c>
+      <c r="T21">
+        <v>0.135215881849047</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>37.46440266666666</v>
+      </c>
+      <c r="H22">
+        <v>112.393208</v>
+      </c>
+      <c r="I22">
+        <v>0.1429716575728017</v>
+      </c>
+      <c r="J22">
+        <v>0.1429716575728017</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.040154</v>
+      </c>
+      <c r="N22">
+        <v>0.120462</v>
+      </c>
+      <c r="O22">
+        <v>0.000117739357997762</v>
+      </c>
+      <c r="P22">
+        <v>0.000117739357997762</v>
+      </c>
+      <c r="Q22">
+        <v>1.504345624677333</v>
+      </c>
+      <c r="R22">
+        <v>13.539110622096</v>
+      </c>
+      <c r="S22">
+        <v>1.683339117449754E-05</v>
+      </c>
+      <c r="T22">
+        <v>1.683339117449754E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>37.46440266666666</v>
+      </c>
+      <c r="H23">
+        <v>112.393208</v>
+      </c>
+      <c r="I23">
+        <v>0.1429716575728017</v>
+      </c>
+      <c r="J23">
+        <v>0.1429716575728017</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>2.854025333333333</v>
+      </c>
+      <c r="N23">
+        <v>8.562075999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.008368558809981951</v>
+      </c>
+      <c r="P23">
+        <v>0.008368558809981953</v>
+      </c>
+      <c r="Q23">
+        <v>106.9243543088675</v>
+      </c>
+      <c r="R23">
+        <v>962.319188779808</v>
+      </c>
+      <c r="S23">
+        <v>0.001196466724558593</v>
+      </c>
+      <c r="T23">
+        <v>0.001196466724558593</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>37.46440266666666</v>
+      </c>
+      <c r="H24">
+        <v>112.393208</v>
+      </c>
+      <c r="I24">
+        <v>0.1429716575728017</v>
+      </c>
+      <c r="J24">
+        <v>0.1429716575728017</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.1353773333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.406132</v>
+      </c>
+      <c r="O24">
+        <v>0.0003969527398046444</v>
+      </c>
+      <c r="P24">
+        <v>0.0003969527398046444</v>
+      </c>
+      <c r="Q24">
+        <v>5.071830927939555</v>
+      </c>
+      <c r="R24">
+        <v>45.646478351456</v>
+      </c>
+      <c r="S24">
+        <v>5.675299118793507E-05</v>
+      </c>
+      <c r="T24">
+        <v>5.675299118793508E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>36.5311529083783</v>
-      </c>
-      <c r="H7">
-        <v>36.5311529083783</v>
-      </c>
-      <c r="I7">
-        <v>0.1436678666858316</v>
-      </c>
-      <c r="J7">
-        <v>0.1436678666858316</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>312.161971943165</v>
-      </c>
-      <c r="N7">
-        <v>312.161971943165</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>11403.63672923666</v>
-      </c>
-      <c r="R7">
-        <v>11403.63672923666</v>
-      </c>
-      <c r="S7">
-        <v>0.1436678666858316</v>
-      </c>
-      <c r="T7">
-        <v>0.1436678666858316</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>37.46440266666666</v>
+      </c>
+      <c r="H25">
+        <v>112.393208</v>
+      </c>
+      <c r="I25">
+        <v>0.1429716575728017</v>
+      </c>
+      <c r="J25">
+        <v>0.1429716575728017</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>338.0118816666666</v>
+      </c>
+      <c r="N25">
+        <v>1014.035645</v>
+      </c>
+      <c r="O25">
+        <v>0.9911167490922156</v>
+      </c>
+      <c r="P25">
+        <v>0.9911167490922157</v>
+      </c>
+      <c r="Q25">
+        <v>12663.41324087768</v>
+      </c>
+      <c r="R25">
+        <v>113970.7191678992</v>
+      </c>
+      <c r="S25">
+        <v>0.1417016044658807</v>
+      </c>
+      <c r="T25">
+        <v>0.1417016044658807</v>
       </c>
     </row>
   </sheetData>
